--- a/Original/CN/Game/Faction.xlsx
+++ b/Original/CN/Game/Faction.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">home</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">Home</t>

--- a/Original/CN/Game/Faction.xlsx
+++ b/Original/CN/Game/Faction.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">home</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">Home</t>

--- a/Original/CN/Game/Faction.xlsx
+++ b/Original/CN/Game/Faction.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">home</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Home</t>

--- a/Original/CN/Game/Faction.xlsx
+++ b/Original/CN/Game/Faction.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">home</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">Home</t>

--- a/Original/CN/Game/Faction.xlsx
+++ b/Original/CN/Game/Faction.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">home</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Home</t>
